--- a/dbt_code_generation_workflow/ip/table_level_metadata.xlsx
+++ b/dbt_code_generation_workflow/ip/table_level_metadata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_project_setup_automation/ip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_code_generation_workflow/ip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8FF39-EA2F-F34F-B0EC-7F0D341729C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F62268-D384-D043-A7C5-61CCF722C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheelt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
